--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Virginia</t>
+          <t>Minnesota</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
